--- a/src/main/webapp/教师基本信息模板表.xlsx
+++ b/src/main/webapp/教师基本信息模板表.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="output" r:id="rId3" sheetId="1"/>
+    <sheet name="教师基本信息表" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/src/main/webapp/教师基本信息模板表.xlsx
+++ b/src/main/webapp/教师基本信息模板表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t/>
   </si>
@@ -36,6 +36,24 @@
   </si>
   <si>
     <t>联系方式</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>20171091****</t>
+  </si>
+  <si>
+    <t>河南工程学校</t>
+  </si>
+  <si>
+    <t>计算机学院</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>152********</t>
   </si>
 </sst>
 </file>
@@ -116,6 +134,15 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="16.0" customWidth="true"/>
+    <col min="4" max="4" width="16.0" customWidth="true"/>
+    <col min="5" max="5" width="16.0" customWidth="true"/>
+    <col min="6" max="6" width="8.0" customWidth="true"/>
+    <col min="7" max="7" width="16.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
@@ -140,6 +167,29 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
